--- a/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/excel-procv-material-inicial/aula3.xlsx
+++ b/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/excel-procv-material-inicial/aula3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officeresolve-my.sharepoint.com/personal/r_sabino_officeresolve_com_br/Documents/Alura/Excel (Curso 3)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasSilvaDantasAbra\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelProcvLogicaBooleanaEBuscaPorValores\excel-procv-material-inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF39765-877D-416C-B621-A4101E15CB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B33912A-774C-4544-8157-86783B2A09EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="20640" windowHeight="11760" firstSheet="1" activeTab="2" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
+    <workbookView xWindow="33210" yWindow="-3705" windowWidth="19425" windowHeight="10635" firstSheet="1" activeTab="1" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos Infantis" sheetId="1" state="hidden" r:id="rId1"/>
@@ -717,7 +717,7 @@
   </cellStyleXfs>
   <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,7 +855,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -864,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -886,7 +886,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,7 +1255,7 @@
             <c:numRef>
               <c:f>'Produtos Infantis'!$F$3:$F$62</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"* #,##0.00_-;\-"R$"* #,##0.00_-;_-"R$"* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-"$"* #.##000_-;\-"$"* #.##000_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1077.3</c:v>
@@ -1531,7 +1531,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;$&quot;* #.##000_-;\-&quot;$&quot;* #.##000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7847,16 +7847,16 @@
       <selection pane="bottomLeft" activeCell="E22" sqref="E3:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="6" width="18.36328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="72" t="s">
         <v>3</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="E1" s="73"/>
       <c r="F1" s="74"/>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>215.45999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1508.2199999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>861.83999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>1651.86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1795.4999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>524.79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>1199.52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>1499.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>449.82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>13</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>1049.58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>14</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>1220.9399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>14</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>14</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>14</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>430.91999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>646.37999999999988</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>14</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>1292.7599999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>14</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1349.46</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>149.94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>14</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>224.91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>14</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>449.82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>14</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>14</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>1424.43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>14</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>1949.22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>14</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>12</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>1795.4999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>12</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
         <v>12</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>215.45999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
         <v>12</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>12</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>12</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
         <v>12</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>1149.1199999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
         <v>12</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
         <v>12</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>1149.1199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>12</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>1005.4799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>12</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>12</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>2174.13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>12</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>12</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>12</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>299.88</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>12</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>12</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1124.55</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>12</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>1199.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>12</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>149.94</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>12</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>2698.92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>10</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>10</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>10</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>1385.1000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>10</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>10</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>10</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>10</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>10</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>461.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>10</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>10</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>2308.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>10</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>404.55000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>10</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>10</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>485.46000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>10</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>1213.6500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>10</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>10</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>10</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>1213.6500000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>10</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>161.82000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>10</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>11</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>461.70000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>11</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>1154.25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>11</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>11</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>11</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>11</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>11</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>11</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>11</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>11</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>11</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>2000.7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>11</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>1699.1100000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>11</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>80.910000000000011</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>11</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>11</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>1860.9300000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>11</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>11</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>11</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>2022.7500000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>11</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>1294.5600000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>11</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
         <v>9</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
         <v>9</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>230.85000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
         <v>9</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="21" t="s">
         <v>9</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="21" t="s">
         <v>9</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="21" t="s">
         <v>9</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="21" t="s">
         <v>9</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="21" t="s">
         <v>9</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="21" t="s">
         <v>9</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="21" t="s">
         <v>9</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>2000.7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="21" t="s">
         <v>9</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>1769.8500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>9</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>404.55000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>9</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>9</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>2022.7500000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>9</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
         <v>9</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>9</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>485.46000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="24" t="s">
         <v>9</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="24" t="s">
         <v>9</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>1699.1100000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="24" t="s">
         <v>9</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>2</v>
@@ -10545,7 +10545,7 @@
         <v>96668.00999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
         <v>7</v>
@@ -10574,18 +10574,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBEA579-FDAC-42AF-B7B9-E3C9C283777C}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40"/>
       <c r="B1" s="41"/>
       <c r="C1" s="80" t="s">
@@ -10611,7 +10611,7 @@
       <c r="U1" s="81"/>
       <c r="V1" s="82"/>
     </row>
-    <row r="2" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="44">
@@ -10675,7 +10675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="83" t="s">
         <v>13</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="84"/>
       <c r="B4" s="49" t="s">
         <v>30</v>
@@ -10809,7 +10809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="78" t="s">
         <v>14</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="79"/>
       <c r="B6" s="49" t="s">
         <v>30</v>
@@ -10943,7 +10943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="78" t="s">
         <v>12</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="79"/>
       <c r="B8" s="49" t="s">
         <v>30</v>
@@ -11077,7 +11077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="78" t="s">
         <v>10</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="79"/>
       <c r="B10" s="49" t="s">
         <v>30</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="79"/>
       <c r="B12" s="49" t="s">
         <v>30</v>
@@ -11345,7 +11345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="78" t="s">
         <v>9</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="79"/>
       <c r="B14" s="49" t="s">
         <v>30</v>
@@ -11497,33 +11497,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C4FC4-DE5B-4DB6-99AD-796FEF13CBFD}">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="2.44140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" style="54" customWidth="1"/>
-    <col min="8" max="9" width="1.6640625" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="54"/>
+    <col min="1" max="1" width="1.6328125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="1.6328125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="3.36328125" style="54" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="54" customWidth="1"/>
+    <col min="8" max="9" width="1.6328125" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="9.08984375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="58"/>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="53"/>
       <c r="C4" s="63"/>
       <c r="D4" s="55"/>
@@ -11534,7 +11534,7 @@
       <c r="F4" s="55"/>
       <c r="G4" s="56"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="53"/>
       <c r="C5" s="63"/>
       <c r="D5" s="64" t="s">
@@ -11546,7 +11546,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="56"/>
     </row>
-    <row r="6" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="53"/>
       <c r="C6" s="63"/>
       <c r="D6" s="64"/>
@@ -11554,7 +11554,7 @@
       <c r="F6" s="55"/>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="53"/>
       <c r="C7" s="63"/>
       <c r="D7" s="64" t="s">
@@ -11566,7 +11566,7 @@
       <c r="F7" s="55"/>
       <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="53"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
@@ -11574,7 +11574,7 @@
       <c r="F8" s="55"/>
       <c r="G8" s="56"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="53"/>
       <c r="C9" s="63"/>
       <c r="D9" s="64" t="s">
@@ -11587,7 +11587,7 @@
       <c r="F9" s="55"/>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="53"/>
       <c r="C10" s="63"/>
       <c r="D10" s="64"/>
@@ -11595,7 +11595,7 @@
       <c r="F10" s="55"/>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="53"/>
       <c r="C11" s="63"/>
       <c r="D11" s="64" t="s">
@@ -11608,7 +11608,7 @@
       <c r="F11" s="55"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53"/>
       <c r="C12" s="60"/>
       <c r="D12" s="67">
@@ -11622,14 +11622,14 @@
       <c r="F12" s="61"/>
       <c r="G12" s="62"/>
     </row>
-    <row r="13" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <conditionalFormatting sqref="E9">
@@ -11654,14 +11654,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="85" t="s">
         <v>16</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -11694,14 +11694,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="31"/>
       <c r="E4" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
@@ -11725,14 +11725,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="31"/>
       <c r="E7" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>8.7480000000000011</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>21</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>87.480000000000047</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>22</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>9.9999999999999964E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
@@ -11798,17 +11798,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11824,8 +11824,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -11960,7 +11960,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12134,18 +12134,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12167,14 +12167,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C4D09E-FADE-4999-BF62-958EA78C798D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A16913-B4C6-4479-B3A3-14C15D706E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12188,4 +12180,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C4D09E-FADE-4999-BF62-958EA78C798D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>